--- a/02_output/10_ppp/ppp_df_top_20_overview.xlsx
+++ b/02_output/10_ppp/ppp_df_top_20_overview.xlsx
@@ -56,21 +56,21 @@
     <t xml:space="preserve">Not Approved</t>
   </si>
   <si>
+    <t xml:space="preserve">Napropamide_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbicide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diflufenican</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herbicide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napropamide_M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Epoxiconazole</t>
   </si>
   <si>
@@ -80,19 +80,37 @@
     <t xml:space="preserve">Fungicide</t>
   </si>
   <si>
+    <t xml:space="preserve">Chlorpyrifos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda_Cyhalothrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hexachlorobenzene</t>
   </si>
   <si>
-    <t xml:space="preserve">Chlorpyrifos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lambda_Cyhalothrin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
+    <t xml:space="preserve">Difenoconazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metconazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fipronil_sulfone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clomazone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
   </si>
   <si>
     <t xml:space="preserve">Boscalid</t>
@@ -101,22 +119,22 @@
     <t xml:space="preserve">0.03</t>
   </si>
   <si>
-    <t xml:space="preserve">Clomazone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difenoconazole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metconazole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fipronil_sulfone</t>
+    <t xml:space="preserve">Fenpropidin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluopyram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendimethalin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tebuconazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
   </si>
   <si>
     <t xml:space="preserve">Acetamiprid</t>
@@ -131,28 +149,10 @@
     <t xml:space="preserve">0.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Dimethenamid_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenpropidin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluopicolide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluopyram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendimethalin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tebuconazole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
+    <t xml:space="preserve">Fluxapyroxad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prochloraz</t>
   </si>
 </sst>
 </file>
@@ -553,22 +553,22 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.97</v>
+        <v>3.86</v>
       </c>
       <c r="E3" t="n">
-        <v>12.85</v>
+        <v>24.81</v>
       </c>
       <c r="F3" t="n">
-        <v>8.41</v>
+        <v>15.52</v>
       </c>
       <c r="G3" t="n">
-        <v>5.77</v>
+        <v>13.63</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -585,22 +585,22 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3.86</v>
+        <v>4.97</v>
       </c>
       <c r="E4" t="n">
-        <v>24.81</v>
+        <v>12.85</v>
       </c>
       <c r="F4" t="n">
-        <v>15.52</v>
+        <v>8.41</v>
       </c>
       <c r="G4" t="n">
-        <v>13.63</v>
+        <v>5.77</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -652,25 +652,25 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>20.51</v>
       </c>
       <c r="F6" t="n">
-        <v>0.66</v>
+        <v>15.03</v>
       </c>
       <c r="G6" t="n">
-        <v>0.29</v>
+        <v>5.43</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -687,57 +687,57 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="E7" t="n">
-        <v>20.51</v>
+        <v>17.9</v>
       </c>
       <c r="F7" t="n">
-        <v>15.03</v>
+        <v>2.29</v>
       </c>
       <c r="G7" t="n">
-        <v>5.43</v>
+        <v>1.56</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="E8" t="n">
-        <v>17.9</v>
+        <v>0.9</v>
       </c>
       <c r="F8" t="n">
-        <v>2.29</v>
+        <v>0.66</v>
       </c>
       <c r="G8" t="n">
-        <v>1.56</v>
+        <v>0.29</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -745,22 +745,22 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>5.3</v>
+        <v>8.59</v>
       </c>
       <c r="E9" t="n">
-        <v>8.15</v>
+        <v>195.95</v>
       </c>
       <c r="F9" t="n">
-        <v>6.72</v>
+        <v>10.33</v>
       </c>
       <c r="G9" t="n">
-        <v>6.29</v>
+        <v>33.15</v>
       </c>
       <c r="H9" t="s">
         <v>28</v>
@@ -780,25 +780,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>4.23</v>
+        <v>6.43</v>
       </c>
       <c r="E10" t="n">
-        <v>8.57</v>
+        <v>13.53</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.71</v>
+        <v>9.29</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
@@ -806,63 +806,63 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>8.59</v>
+        <v>3.61</v>
       </c>
       <c r="E11" t="n">
-        <v>195.95</v>
+        <v>9.4</v>
       </c>
       <c r="F11" t="n">
-        <v>10.33</v>
+        <v>9.25</v>
       </c>
       <c r="G11" t="n">
-        <v>33.15</v>
+        <v>5.62</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>6.43</v>
+        <v>4.23</v>
       </c>
       <c r="E12" t="n">
-        <v>13.53</v>
+        <v>8.57</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>9.29</v>
+        <v>5.71</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
@@ -870,34 +870,34 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="H13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -905,28 +905,28 @@
         <v>35</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>3.62</v>
+        <v>4.78</v>
       </c>
       <c r="E14" t="n">
-        <v>8.01</v>
+        <v>8.46</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="G14" t="n">
-        <v>5.26</v>
+        <v>8.04</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
@@ -934,28 +934,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="E15" t="n">
+        <v>81.11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55.33</v>
+      </c>
+      <c r="H15" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="F15" t="n">
-        <v>20.48</v>
-      </c>
-      <c r="G15" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>38</v>
       </c>
       <c r="I15" t="s">
         <v>21</v>
@@ -966,25 +966,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7.79</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>31.92</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.5</v>
+        <v>16.67</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -998,28 +998,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="E17" t="n">
+        <v>46.57</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>33.65</v>
+      </c>
+      <c r="H17" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.46</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8.04</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
@@ -1036,25 +1036,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="E18" t="n">
-        <v>4.09</v>
+        <v>8.01</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4.02</v>
+        <v>5.26</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -1062,28 +1062,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>4.18</v>
+        <v>9.8</v>
       </c>
       <c r="E19" t="n">
-        <v>81.11</v>
+        <v>20.48</v>
       </c>
       <c r="F19" t="n">
-        <v>4.49</v>
+        <v>20.48</v>
       </c>
       <c r="G19" t="n">
-        <v>55.33</v>
+        <v>10.26</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -1094,31 +1094,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="E20" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20.63</v>
+      </c>
+      <c r="H20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="E20" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -1126,28 +1126,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>19.34</v>
+        <v>5.21</v>
       </c>
       <c r="E21" t="n">
-        <v>46.57</v>
+        <v>6.91</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>6.43</v>
       </c>
       <c r="G21" t="n">
-        <v>33.65</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
         <v>21</v>
